--- a/County_Basin_IDs.xlsx
+++ b/County_Basin_IDs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Documents\GitHub\TWDB_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files_Adel\Texas_WaterUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A167E78-13CE-4233-AB0F-4E79FC5AA9FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10005" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="County_FIPS" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="350">
   <si>
     <t>TX</t>
   </si>
@@ -1068,12 +1069,15 @@
   </si>
   <si>
     <t>Livestock Reuse</t>
+  </si>
+  <si>
+    <t>Min_re</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1926,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -6283,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6696,17 +6700,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4889A3F2-3CD4-4681-96E4-2A229D7AA7BA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -6872,7 +6876,7 @@
         <v>294</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>311</v>

--- a/County_Basin_IDs.xlsx
+++ b/County_Basin_IDs.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files_Adel\Texas_WaterUse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Documents\GitHub\TWDB_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A167E78-13CE-4233-AB0F-4E79FC5AA9FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="County_FIPS" sheetId="1" r:id="rId1"/>
     <sheet name="BasinTCEQID" sheetId="2" r:id="rId2"/>
     <sheet name="LU_BENEFICIAL_USE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="352">
   <si>
     <t>TX</t>
   </si>
@@ -1072,12 +1071,18 @@
   </si>
   <si>
     <t>Min_re</t>
+  </si>
+  <si>
+    <t>COUNTYFP_original</t>
+  </si>
+  <si>
+    <t>COUNTYFP_formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1930,10 +1935,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1942,11 +1947,12 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -1956,14 +1962,20 @@
       <c r="C1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1971,16 +1983,23 @@
         <v>48</v>
       </c>
       <c r="C2" s="4">
+        <v>48001</v>
+      </c>
+      <c r="D2" s="4">
+        <f>48000 +(E2*2)-1</f>
+        <v>48001</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1988,16 +2007,23 @@
         <v>48</v>
       </c>
       <c r="C3" s="4">
+        <v>48005</v>
+      </c>
+      <c r="D3" s="4">
+        <f>48000 +(E3*2)-1</f>
+        <v>48005</v>
+      </c>
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2005,16 +2031,23 @@
         <v>48</v>
       </c>
       <c r="C4" s="4">
+        <v>48009</v>
+      </c>
+      <c r="D4" s="4">
+        <f>48000 +(E4*2)-1</f>
+        <v>48009</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2022,16 +2055,23 @@
         <v>48</v>
       </c>
       <c r="C5" s="4">
+        <v>48013</v>
+      </c>
+      <c r="D5" s="4">
+        <f>48000 +(E5*2)-1</f>
+        <v>48013</v>
+      </c>
+      <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2039,16 +2079,23 @@
         <v>48</v>
       </c>
       <c r="C6" s="4">
+        <v>48017</v>
+      </c>
+      <c r="D6" s="4">
+        <f>48000 +(E6*2)-1</f>
+        <v>48017</v>
+      </c>
+      <c r="E6" s="4">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2056,16 +2103,23 @@
         <v>48</v>
       </c>
       <c r="C7" s="4">
+        <v>48021</v>
+      </c>
+      <c r="D7" s="4">
+        <f>48000 +(E7*2)-1</f>
+        <v>48021</v>
+      </c>
+      <c r="E7" s="4">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2073,16 +2127,23 @@
         <v>48</v>
       </c>
       <c r="C8" s="4">
+        <v>48025</v>
+      </c>
+      <c r="D8" s="4">
+        <f>48000 +(E8*2)-1</f>
+        <v>48025</v>
+      </c>
+      <c r="E8" s="4">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2090,16 +2151,23 @@
         <v>48</v>
       </c>
       <c r="C9" s="4">
+        <v>48029</v>
+      </c>
+      <c r="D9" s="4">
+        <f>48000 +(E9*2)-1</f>
+        <v>48029</v>
+      </c>
+      <c r="E9" s="4">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2107,16 +2175,23 @@
         <v>48</v>
       </c>
       <c r="C10" s="4">
+        <v>48033</v>
+      </c>
+      <c r="D10" s="4">
+        <f>48000 +(E10*2)-1</f>
+        <v>48033</v>
+      </c>
+      <c r="E10" s="4">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2124,16 +2199,23 @@
         <v>48</v>
       </c>
       <c r="C11" s="4">
+        <v>48037</v>
+      </c>
+      <c r="D11" s="4">
+        <f>48000 +(E11*2)-1</f>
+        <v>48037</v>
+      </c>
+      <c r="E11" s="4">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2141,16 +2223,23 @@
         <v>48</v>
       </c>
       <c r="C12" s="4">
+        <v>48041</v>
+      </c>
+      <c r="D12" s="4">
+        <f>48000 +(E12*2)-1</f>
+        <v>48041</v>
+      </c>
+      <c r="E12" s="4">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2158,16 +2247,23 @@
         <v>48</v>
       </c>
       <c r="C13" s="4">
+        <v>48045</v>
+      </c>
+      <c r="D13" s="4">
+        <f>48000 +(E13*2)-1</f>
+        <v>48045</v>
+      </c>
+      <c r="E13" s="4">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2175,16 +2271,23 @@
         <v>48</v>
       </c>
       <c r="C14" s="4">
+        <v>48049</v>
+      </c>
+      <c r="D14" s="4">
+        <f>48000 +(E14*2)-1</f>
+        <v>48049</v>
+      </c>
+      <c r="E14" s="4">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2192,16 +2295,23 @@
         <v>48</v>
       </c>
       <c r="C15" s="4">
+        <v>48053</v>
+      </c>
+      <c r="D15" s="4">
+        <f>48000 +(E15*2)-1</f>
+        <v>48053</v>
+      </c>
+      <c r="E15" s="4">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2209,16 +2319,23 @@
         <v>48</v>
       </c>
       <c r="C16" s="4">
+        <v>48057</v>
+      </c>
+      <c r="D16" s="4">
+        <f>48000 +(E16*2)-1</f>
+        <v>48057</v>
+      </c>
+      <c r="E16" s="4">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2226,16 +2343,23 @@
         <v>48</v>
       </c>
       <c r="C17" s="4">
+        <v>48061</v>
+      </c>
+      <c r="D17" s="4">
+        <f>48000 +(E17*2)-1</f>
+        <v>48061</v>
+      </c>
+      <c r="E17" s="4">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2243,16 +2367,23 @@
         <v>48</v>
       </c>
       <c r="C18" s="4">
+        <v>48065</v>
+      </c>
+      <c r="D18" s="4">
+        <f>48000 +(E18*2)-1</f>
+        <v>48065</v>
+      </c>
+      <c r="E18" s="4">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2260,16 +2391,23 @@
         <v>48</v>
       </c>
       <c r="C19" s="4">
+        <v>48069</v>
+      </c>
+      <c r="D19" s="4">
+        <f>48000 +(E19*2)-1</f>
+        <v>48069</v>
+      </c>
+      <c r="E19" s="4">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2277,16 +2415,23 @@
         <v>48</v>
       </c>
       <c r="C20" s="4">
+        <v>48073</v>
+      </c>
+      <c r="D20" s="4">
+        <f>48000 +(E20*2)-1</f>
+        <v>48073</v>
+      </c>
+      <c r="E20" s="4">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2294,16 +2439,23 @@
         <v>48</v>
       </c>
       <c r="C21" s="4">
+        <v>48077</v>
+      </c>
+      <c r="D21" s="4">
+        <f>48000 +(E21*2)-1</f>
+        <v>48077</v>
+      </c>
+      <c r="E21" s="4">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2311,16 +2463,23 @@
         <v>48</v>
       </c>
       <c r="C22" s="4">
+        <v>48081</v>
+      </c>
+      <c r="D22" s="4">
+        <f>48000 +(E22*2)-1</f>
+        <v>48081</v>
+      </c>
+      <c r="E22" s="4">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2328,16 +2487,23 @@
         <v>48</v>
       </c>
       <c r="C23" s="4">
+        <v>48085</v>
+      </c>
+      <c r="D23" s="4">
+        <f>48000 +(E23*2)-1</f>
+        <v>48085</v>
+      </c>
+      <c r="E23" s="4">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2345,16 +2511,23 @@
         <v>48</v>
       </c>
       <c r="C24" s="4">
+        <v>48089</v>
+      </c>
+      <c r="D24" s="4">
+        <f>48000 +(E24*2)-1</f>
+        <v>48089</v>
+      </c>
+      <c r="E24" s="4">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2362,16 +2535,23 @@
         <v>48</v>
       </c>
       <c r="C25" s="4">
+        <v>48093</v>
+      </c>
+      <c r="D25" s="4">
+        <f>48000 +(E25*2)-1</f>
+        <v>48093</v>
+      </c>
+      <c r="E25" s="4">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2379,16 +2559,23 @@
         <v>48</v>
       </c>
       <c r="C26" s="4">
+        <v>48097</v>
+      </c>
+      <c r="D26" s="4">
+        <f>48000 +(E26*2)-1</f>
+        <v>48097</v>
+      </c>
+      <c r="E26" s="4">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2396,16 +2583,23 @@
         <v>48</v>
       </c>
       <c r="C27" s="4">
+        <v>48101</v>
+      </c>
+      <c r="D27" s="4">
+        <f>48000 +(E27*2)-1</f>
+        <v>48101</v>
+      </c>
+      <c r="E27" s="4">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2413,16 +2607,23 @@
         <v>48</v>
       </c>
       <c r="C28" s="4">
+        <v>48105</v>
+      </c>
+      <c r="D28" s="4">
+        <f>48000 +(E28*2)-1</f>
+        <v>48105</v>
+      </c>
+      <c r="E28" s="4">
         <v>53</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2430,16 +2631,23 @@
         <v>48</v>
       </c>
       <c r="C29" s="4">
+        <v>48109</v>
+      </c>
+      <c r="D29" s="4">
+        <f>48000 +(E29*2)-1</f>
+        <v>48109</v>
+      </c>
+      <c r="E29" s="4">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2447,16 +2655,23 @@
         <v>48</v>
       </c>
       <c r="C30" s="4">
+        <v>48113</v>
+      </c>
+      <c r="D30" s="4">
+        <f>48000 +(E30*2)-1</f>
+        <v>48113</v>
+      </c>
+      <c r="E30" s="4">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2464,16 +2679,23 @@
         <v>48</v>
       </c>
       <c r="C31" s="4">
+        <v>48117</v>
+      </c>
+      <c r="D31" s="4">
+        <f>48000 +(E31*2)-1</f>
+        <v>48117</v>
+      </c>
+      <c r="E31" s="4">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2481,16 +2703,23 @@
         <v>48</v>
       </c>
       <c r="C32" s="4">
+        <v>48121</v>
+      </c>
+      <c r="D32" s="4">
+        <f>48000 +(E32*2)-1</f>
+        <v>48121</v>
+      </c>
+      <c r="E32" s="4">
         <v>61</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2498,16 +2727,23 @@
         <v>48</v>
       </c>
       <c r="C33" s="4">
+        <v>48125</v>
+      </c>
+      <c r="D33" s="4">
+        <f>48000 +(E33*2)-1</f>
+        <v>48125</v>
+      </c>
+      <c r="E33" s="4">
         <v>63</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2515,16 +2751,23 @@
         <v>48</v>
       </c>
       <c r="C34" s="4">
+        <v>48129</v>
+      </c>
+      <c r="D34" s="4">
+        <f>48000 +(E34*2)-1</f>
+        <v>48129</v>
+      </c>
+      <c r="E34" s="4">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2532,16 +2775,23 @@
         <v>48</v>
       </c>
       <c r="C35" s="4">
+        <v>48133</v>
+      </c>
+      <c r="D35" s="4">
+        <f>48000 +(E35*2)-1</f>
+        <v>48133</v>
+      </c>
+      <c r="E35" s="4">
         <v>67</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2549,16 +2799,23 @@
         <v>48</v>
       </c>
       <c r="C36" s="4">
+        <v>48137</v>
+      </c>
+      <c r="D36" s="4">
+        <f>48000 +(E36*2)-1</f>
+        <v>48137</v>
+      </c>
+      <c r="E36" s="4">
         <v>69</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2566,16 +2823,23 @@
         <v>48</v>
       </c>
       <c r="C37" s="4">
+        <v>48141</v>
+      </c>
+      <c r="D37" s="4">
+        <f>48000 +(E37*2)-1</f>
+        <v>48141</v>
+      </c>
+      <c r="E37" s="4">
         <v>71</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>37</v>
       </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2583,16 +2847,23 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
+        <v>48145</v>
+      </c>
+      <c r="D38" s="4">
+        <f>48000 +(E38*2)-1</f>
+        <v>48145</v>
+      </c>
+      <c r="E38" s="4">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>38</v>
       </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2600,16 +2871,23 @@
         <v>48</v>
       </c>
       <c r="C39" s="4">
+        <v>48149</v>
+      </c>
+      <c r="D39" s="4">
+        <f>48000 +(E39*2)-1</f>
+        <v>48149</v>
+      </c>
+      <c r="E39" s="4">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>39</v>
       </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2617,16 +2895,23 @@
         <v>48</v>
       </c>
       <c r="C40" s="4">
+        <v>48153</v>
+      </c>
+      <c r="D40" s="4">
+        <f>48000 +(E40*2)-1</f>
+        <v>48153</v>
+      </c>
+      <c r="E40" s="4">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>40</v>
       </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2634,16 +2919,23 @@
         <v>48</v>
       </c>
       <c r="C41" s="4">
+        <v>48157</v>
+      </c>
+      <c r="D41" s="4">
+        <f>48000 +(E41*2)-1</f>
+        <v>48157</v>
+      </c>
+      <c r="E41" s="4">
         <v>79</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>41</v>
       </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2651,16 +2943,23 @@
         <v>48</v>
       </c>
       <c r="C42" s="4">
+        <v>48161</v>
+      </c>
+      <c r="D42" s="4">
+        <f>48000 +(E42*2)-1</f>
+        <v>48161</v>
+      </c>
+      <c r="E42" s="4">
         <v>81</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>42</v>
       </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2668,16 +2967,23 @@
         <v>48</v>
       </c>
       <c r="C43" s="4">
+        <v>48165</v>
+      </c>
+      <c r="D43" s="4">
+        <f>48000 +(E43*2)-1</f>
+        <v>48165</v>
+      </c>
+      <c r="E43" s="4">
         <v>83</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>43</v>
       </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2685,16 +2991,23 @@
         <v>48</v>
       </c>
       <c r="C44" s="4">
+        <v>48169</v>
+      </c>
+      <c r="D44" s="4">
+        <f>48000 +(E44*2)-1</f>
+        <v>48169</v>
+      </c>
+      <c r="E44" s="4">
         <v>85</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>44</v>
       </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2702,16 +3015,23 @@
         <v>48</v>
       </c>
       <c r="C45" s="4">
+        <v>48173</v>
+      </c>
+      <c r="D45" s="4">
+        <f>48000 +(E45*2)-1</f>
+        <v>48173</v>
+      </c>
+      <c r="E45" s="4">
         <v>87</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>45</v>
       </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2719,16 +3039,23 @@
         <v>48</v>
       </c>
       <c r="C46" s="4">
+        <v>48177</v>
+      </c>
+      <c r="D46" s="4">
+        <f>48000 +(E46*2)-1</f>
+        <v>48177</v>
+      </c>
+      <c r="E46" s="4">
         <v>89</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>46</v>
       </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2736,16 +3063,23 @@
         <v>48</v>
       </c>
       <c r="C47" s="4">
+        <v>48181</v>
+      </c>
+      <c r="D47" s="4">
+        <f>48000 +(E47*2)-1</f>
+        <v>48181</v>
+      </c>
+      <c r="E47" s="4">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>47</v>
       </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2753,16 +3087,23 @@
         <v>48</v>
       </c>
       <c r="C48" s="4">
+        <v>48185</v>
+      </c>
+      <c r="D48" s="4">
+        <f>48000 +(E48*2)-1</f>
+        <v>48185</v>
+      </c>
+      <c r="E48" s="4">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2770,16 +3111,23 @@
         <v>48</v>
       </c>
       <c r="C49" s="4">
+        <v>48189</v>
+      </c>
+      <c r="D49" s="4">
+        <f>48000 +(E49*2)-1</f>
+        <v>48189</v>
+      </c>
+      <c r="E49" s="4">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>49</v>
       </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2787,16 +3135,23 @@
         <v>48</v>
       </c>
       <c r="C50" s="4">
+        <v>48193</v>
+      </c>
+      <c r="D50" s="4">
+        <f>48000 +(E50*2)-1</f>
+        <v>48193</v>
+      </c>
+      <c r="E50" s="4">
         <v>97</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>50</v>
       </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2804,16 +3159,23 @@
         <v>48</v>
       </c>
       <c r="C51" s="4">
+        <v>48197</v>
+      </c>
+      <c r="D51" s="4">
+        <f>48000 +(E51*2)-1</f>
+        <v>48197</v>
+      </c>
+      <c r="E51" s="4">
         <v>99</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>51</v>
       </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2821,16 +3183,23 @@
         <v>48</v>
       </c>
       <c r="C52" s="4">
+        <v>48201</v>
+      </c>
+      <c r="D52" s="4">
+        <f>48000 +(E52*2)-1</f>
+        <v>48201</v>
+      </c>
+      <c r="E52" s="4">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>52</v>
       </c>
-      <c r="E52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2838,16 +3207,23 @@
         <v>48</v>
       </c>
       <c r="C53" s="4">
+        <v>48205</v>
+      </c>
+      <c r="D53" s="4">
+        <f>48000 +(E53*2)-1</f>
+        <v>48205</v>
+      </c>
+      <c r="E53" s="4">
         <v>103</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>53</v>
       </c>
-      <c r="E53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2855,16 +3231,23 @@
         <v>48</v>
       </c>
       <c r="C54" s="4">
+        <v>48209</v>
+      </c>
+      <c r="D54" s="4">
+        <f>48000 +(E54*2)-1</f>
+        <v>48209</v>
+      </c>
+      <c r="E54" s="4">
         <v>105</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>54</v>
       </c>
-      <c r="E54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2872,16 +3255,23 @@
         <v>48</v>
       </c>
       <c r="C55" s="4">
+        <v>48213</v>
+      </c>
+      <c r="D55" s="4">
+        <f>48000 +(E55*2)-1</f>
+        <v>48213</v>
+      </c>
+      <c r="E55" s="4">
         <v>107</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>55</v>
       </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2889,16 +3279,23 @@
         <v>48</v>
       </c>
       <c r="C56" s="4">
+        <v>48217</v>
+      </c>
+      <c r="D56" s="4">
+        <f>48000 +(E56*2)-1</f>
+        <v>48217</v>
+      </c>
+      <c r="E56" s="4">
         <v>109</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>56</v>
       </c>
-      <c r="E56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2906,16 +3303,23 @@
         <v>48</v>
       </c>
       <c r="C57" s="4">
+        <v>48221</v>
+      </c>
+      <c r="D57" s="4">
+        <f>48000 +(E57*2)-1</f>
+        <v>48221</v>
+      </c>
+      <c r="E57" s="4">
         <v>111</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>57</v>
       </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2923,16 +3327,23 @@
         <v>48</v>
       </c>
       <c r="C58" s="4">
+        <v>48225</v>
+      </c>
+      <c r="D58" s="4">
+        <f>48000 +(E58*2)-1</f>
+        <v>48225</v>
+      </c>
+      <c r="E58" s="4">
         <v>113</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>58</v>
       </c>
-      <c r="E58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2940,16 +3351,23 @@
         <v>48</v>
       </c>
       <c r="C59" s="4">
+        <v>48229</v>
+      </c>
+      <c r="D59" s="4">
+        <f>48000 +(E59*2)-1</f>
+        <v>48229</v>
+      </c>
+      <c r="E59" s="4">
         <v>115</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>59</v>
       </c>
-      <c r="E59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2957,16 +3375,23 @@
         <v>48</v>
       </c>
       <c r="C60" s="4">
+        <v>48233</v>
+      </c>
+      <c r="D60" s="4">
+        <f>48000 +(E60*2)-1</f>
+        <v>48233</v>
+      </c>
+      <c r="E60" s="4">
         <v>117</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>60</v>
       </c>
-      <c r="E60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2974,16 +3399,23 @@
         <v>48</v>
       </c>
       <c r="C61" s="4">
+        <v>48237</v>
+      </c>
+      <c r="D61" s="4">
+        <f>48000 +(E61*2)-1</f>
+        <v>48237</v>
+      </c>
+      <c r="E61" s="4">
         <v>119</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>61</v>
       </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2991,16 +3423,23 @@
         <v>48</v>
       </c>
       <c r="C62" s="4">
+        <v>48241</v>
+      </c>
+      <c r="D62" s="4">
+        <f>48000 +(E62*2)-1</f>
+        <v>48241</v>
+      </c>
+      <c r="E62" s="4">
         <v>121</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>62</v>
       </c>
-      <c r="E62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3008,16 +3447,23 @@
         <v>48</v>
       </c>
       <c r="C63" s="4">
+        <v>48245</v>
+      </c>
+      <c r="D63" s="4">
+        <f>48000 +(E63*2)-1</f>
+        <v>48245</v>
+      </c>
+      <c r="E63" s="4">
         <v>123</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>63</v>
       </c>
-      <c r="E63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3025,16 +3471,23 @@
         <v>48</v>
       </c>
       <c r="C64" s="4">
+        <v>48249</v>
+      </c>
+      <c r="D64" s="4">
+        <f>48000 +(E64*2)-1</f>
+        <v>48249</v>
+      </c>
+      <c r="E64" s="4">
         <v>125</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>64</v>
       </c>
-      <c r="E64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3042,16 +3495,23 @@
         <v>48</v>
       </c>
       <c r="C65" s="4">
+        <v>48253</v>
+      </c>
+      <c r="D65" s="4">
+        <f>48000 +(E65*2)-1</f>
+        <v>48253</v>
+      </c>
+      <c r="E65" s="4">
         <v>127</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>65</v>
       </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3059,16 +3519,23 @@
         <v>48</v>
       </c>
       <c r="C66" s="4">
+        <v>48257</v>
+      </c>
+      <c r="D66" s="4">
+        <f>48000 +(E66*2)-1</f>
+        <v>48257</v>
+      </c>
+      <c r="E66" s="4">
         <v>129</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>66</v>
       </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3076,16 +3543,23 @@
         <v>48</v>
       </c>
       <c r="C67" s="4">
+        <v>48261</v>
+      </c>
+      <c r="D67" s="4">
+        <f>48000 +(E67*2)-1</f>
+        <v>48261</v>
+      </c>
+      <c r="E67" s="4">
         <v>131</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
         <v>67</v>
       </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3093,16 +3567,23 @@
         <v>48</v>
       </c>
       <c r="C68" s="4">
+        <v>48265</v>
+      </c>
+      <c r="D68" s="4">
+        <f>48000 +(E68*2)-1</f>
+        <v>48265</v>
+      </c>
+      <c r="E68" s="4">
         <v>133</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>68</v>
       </c>
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3110,16 +3591,23 @@
         <v>48</v>
       </c>
       <c r="C69" s="4">
+        <v>48269</v>
+      </c>
+      <c r="D69" s="4">
+        <f>48000 +(E69*2)-1</f>
+        <v>48269</v>
+      </c>
+      <c r="E69" s="4">
         <v>135</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>69</v>
       </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3127,16 +3615,23 @@
         <v>48</v>
       </c>
       <c r="C70" s="4">
+        <v>48273</v>
+      </c>
+      <c r="D70" s="4">
+        <f>48000 +(E70*2)-1</f>
+        <v>48273</v>
+      </c>
+      <c r="E70" s="4">
         <v>137</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>70</v>
       </c>
-      <c r="E70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3144,16 +3639,23 @@
         <v>48</v>
       </c>
       <c r="C71" s="4">
+        <v>48277</v>
+      </c>
+      <c r="D71" s="4">
+        <f>48000 +(E71*2)-1</f>
+        <v>48277</v>
+      </c>
+      <c r="E71" s="4">
         <v>139</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>71</v>
       </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3161,16 +3663,23 @@
         <v>48</v>
       </c>
       <c r="C72" s="4">
+        <v>48281</v>
+      </c>
+      <c r="D72" s="4">
+        <f>48000 +(E72*2)-1</f>
+        <v>48281</v>
+      </c>
+      <c r="E72" s="4">
         <v>141</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>72</v>
       </c>
-      <c r="E72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3178,16 +3687,23 @@
         <v>48</v>
       </c>
       <c r="C73" s="4">
+        <v>48285</v>
+      </c>
+      <c r="D73" s="4">
+        <f>48000 +(E73*2)-1</f>
+        <v>48285</v>
+      </c>
+      <c r="E73" s="4">
         <v>143</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>73</v>
       </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3195,16 +3711,23 @@
         <v>48</v>
       </c>
       <c r="C74" s="4">
+        <v>48289</v>
+      </c>
+      <c r="D74" s="4">
+        <f>48000 +(E74*2)-1</f>
+        <v>48289</v>
+      </c>
+      <c r="E74" s="4">
         <v>145</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>74</v>
       </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3212,16 +3735,23 @@
         <v>48</v>
       </c>
       <c r="C75" s="4">
+        <v>48293</v>
+      </c>
+      <c r="D75" s="4">
+        <f>48000 +(E75*2)-1</f>
+        <v>48293</v>
+      </c>
+      <c r="E75" s="4">
         <v>147</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>75</v>
       </c>
-      <c r="E75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3229,16 +3759,23 @@
         <v>48</v>
       </c>
       <c r="C76" s="4">
+        <v>48297</v>
+      </c>
+      <c r="D76" s="4">
+        <f>48000 +(E76*2)-1</f>
+        <v>48297</v>
+      </c>
+      <c r="E76" s="4">
         <v>149</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>76</v>
       </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3246,16 +3783,23 @@
         <v>48</v>
       </c>
       <c r="C77" s="4">
+        <v>48301</v>
+      </c>
+      <c r="D77" s="4">
+        <f>48000 +(E77*2)-1</f>
+        <v>48301</v>
+      </c>
+      <c r="E77" s="4">
         <v>151</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>77</v>
       </c>
-      <c r="E77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3263,16 +3807,23 @@
         <v>48</v>
       </c>
       <c r="C78" s="4">
+        <v>48305</v>
+      </c>
+      <c r="D78" s="4">
+        <f>48000 +(E78*2)-1</f>
+        <v>48305</v>
+      </c>
+      <c r="E78" s="4">
         <v>153</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>78</v>
       </c>
-      <c r="E78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3280,16 +3831,23 @@
         <v>48</v>
       </c>
       <c r="C79" s="4">
+        <v>48309</v>
+      </c>
+      <c r="D79" s="4">
+        <f>48000 +(E79*2)-1</f>
+        <v>48309</v>
+      </c>
+      <c r="E79" s="4">
         <v>155</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>79</v>
       </c>
-      <c r="E79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3297,16 +3855,23 @@
         <v>48</v>
       </c>
       <c r="C80" s="4">
+        <v>48313</v>
+      </c>
+      <c r="D80" s="4">
+        <f>48000 +(E80*2)-1</f>
+        <v>48313</v>
+      </c>
+      <c r="E80" s="4">
         <v>157</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>80</v>
       </c>
-      <c r="E80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3314,16 +3879,23 @@
         <v>48</v>
       </c>
       <c r="C81" s="4">
+        <v>48317</v>
+      </c>
+      <c r="D81" s="4">
+        <f>48000 +(E81*2)-1</f>
+        <v>48317</v>
+      </c>
+      <c r="E81" s="4">
         <v>159</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>81</v>
       </c>
-      <c r="E81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3331,16 +3903,23 @@
         <v>48</v>
       </c>
       <c r="C82" s="4">
+        <v>48321</v>
+      </c>
+      <c r="D82" s="4">
+        <f>48000 +(E82*2)-1</f>
+        <v>48321</v>
+      </c>
+      <c r="E82" s="4">
         <v>161</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>82</v>
       </c>
-      <c r="E82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3348,16 +3927,23 @@
         <v>48</v>
       </c>
       <c r="C83" s="4">
+        <v>48325</v>
+      </c>
+      <c r="D83" s="4">
+        <f>48000 +(E83*2)-1</f>
+        <v>48325</v>
+      </c>
+      <c r="E83" s="4">
         <v>163</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>83</v>
       </c>
-      <c r="E83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3365,16 +3951,23 @@
         <v>48</v>
       </c>
       <c r="C84" s="4">
+        <v>48329</v>
+      </c>
+      <c r="D84" s="4">
+        <f>48000 +(E84*2)-1</f>
+        <v>48329</v>
+      </c>
+      <c r="E84" s="4">
         <v>165</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>84</v>
       </c>
-      <c r="E84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3382,16 +3975,23 @@
         <v>48</v>
       </c>
       <c r="C85" s="4">
+        <v>48333</v>
+      </c>
+      <c r="D85" s="4">
+        <f>48000 +(E85*2)-1</f>
+        <v>48333</v>
+      </c>
+      <c r="E85" s="4">
         <v>167</v>
       </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>85</v>
       </c>
-      <c r="E85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3399,16 +3999,23 @@
         <v>48</v>
       </c>
       <c r="C86" s="4">
+        <v>48337</v>
+      </c>
+      <c r="D86" s="4">
+        <f>48000 +(E86*2)-1</f>
+        <v>48337</v>
+      </c>
+      <c r="E86" s="4">
         <v>169</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>86</v>
       </c>
-      <c r="E86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3416,16 +4023,23 @@
         <v>48</v>
       </c>
       <c r="C87" s="4">
+        <v>48341</v>
+      </c>
+      <c r="D87" s="4">
+        <f>48000 +(E87*2)-1</f>
+        <v>48341</v>
+      </c>
+      <c r="E87" s="4">
         <v>171</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>87</v>
       </c>
-      <c r="E87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3433,16 +4047,23 @@
         <v>48</v>
       </c>
       <c r="C88" s="4">
+        <v>48345</v>
+      </c>
+      <c r="D88" s="4">
+        <f>48000 +(E88*2)-1</f>
+        <v>48345</v>
+      </c>
+      <c r="E88" s="4">
         <v>173</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>88</v>
       </c>
-      <c r="E88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3450,16 +4071,23 @@
         <v>48</v>
       </c>
       <c r="C89" s="4">
+        <v>48349</v>
+      </c>
+      <c r="D89" s="4">
+        <f>48000 +(E89*2)-1</f>
+        <v>48349</v>
+      </c>
+      <c r="E89" s="4">
         <v>175</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>89</v>
       </c>
-      <c r="E89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3467,16 +4095,23 @@
         <v>48</v>
       </c>
       <c r="C90" s="4">
+        <v>48353</v>
+      </c>
+      <c r="D90" s="4">
+        <f>48000 +(E90*2)-1</f>
+        <v>48353</v>
+      </c>
+      <c r="E90" s="4">
         <v>177</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>90</v>
       </c>
-      <c r="E90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3484,16 +4119,23 @@
         <v>48</v>
       </c>
       <c r="C91" s="4">
+        <v>48357</v>
+      </c>
+      <c r="D91" s="4">
+        <f>48000 +(E91*2)-1</f>
+        <v>48357</v>
+      </c>
+      <c r="E91" s="4">
         <v>179</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>91</v>
       </c>
-      <c r="E91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3501,16 +4143,23 @@
         <v>48</v>
       </c>
       <c r="C92" s="4">
+        <v>48361</v>
+      </c>
+      <c r="D92" s="4">
+        <f>48000 +(E92*2)-1</f>
+        <v>48361</v>
+      </c>
+      <c r="E92" s="4">
         <v>181</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>92</v>
       </c>
-      <c r="E92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3518,16 +4167,23 @@
         <v>48</v>
       </c>
       <c r="C93" s="4">
+        <v>48365</v>
+      </c>
+      <c r="D93" s="4">
+        <f>48000 +(E93*2)-1</f>
+        <v>48365</v>
+      </c>
+      <c r="E93" s="4">
         <v>183</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>93</v>
       </c>
-      <c r="E93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3535,16 +4191,23 @@
         <v>48</v>
       </c>
       <c r="C94" s="4">
+        <v>48369</v>
+      </c>
+      <c r="D94" s="4">
+        <f>48000 +(E94*2)-1</f>
+        <v>48369</v>
+      </c>
+      <c r="E94" s="4">
         <v>185</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>94</v>
       </c>
-      <c r="E94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3552,16 +4215,23 @@
         <v>48</v>
       </c>
       <c r="C95" s="4">
+        <v>48373</v>
+      </c>
+      <c r="D95" s="4">
+        <f>48000 +(E95*2)-1</f>
+        <v>48373</v>
+      </c>
+      <c r="E95" s="4">
         <v>187</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>95</v>
       </c>
-      <c r="E95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3569,16 +4239,23 @@
         <v>48</v>
       </c>
       <c r="C96" s="4">
+        <v>48377</v>
+      </c>
+      <c r="D96" s="4">
+        <f>48000 +(E96*2)-1</f>
+        <v>48377</v>
+      </c>
+      <c r="E96" s="4">
         <v>189</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>96</v>
       </c>
-      <c r="E96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3586,16 +4263,23 @@
         <v>48</v>
       </c>
       <c r="C97" s="4">
+        <v>48381</v>
+      </c>
+      <c r="D97" s="4">
+        <f>48000 +(E97*2)-1</f>
+        <v>48381</v>
+      </c>
+      <c r="E97" s="4">
         <v>191</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>97</v>
       </c>
-      <c r="E97" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3603,16 +4287,23 @@
         <v>48</v>
       </c>
       <c r="C98" s="4">
+        <v>48385</v>
+      </c>
+      <c r="D98" s="4">
+        <f>48000 +(E98*2)-1</f>
+        <v>48385</v>
+      </c>
+      <c r="E98" s="4">
         <v>193</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>98</v>
       </c>
-      <c r="E98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3620,16 +4311,23 @@
         <v>48</v>
       </c>
       <c r="C99" s="4">
+        <v>48389</v>
+      </c>
+      <c r="D99" s="4">
+        <f>48000 +(E99*2)-1</f>
+        <v>48389</v>
+      </c>
+      <c r="E99" s="4">
         <v>195</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>99</v>
       </c>
-      <c r="E99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3637,16 +4335,23 @@
         <v>48</v>
       </c>
       <c r="C100" s="4">
+        <v>48393</v>
+      </c>
+      <c r="D100" s="4">
+        <f>48000 +(E100*2)-1</f>
+        <v>48393</v>
+      </c>
+      <c r="E100" s="4">
         <v>197</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>100</v>
       </c>
-      <c r="E100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3654,16 +4359,23 @@
         <v>48</v>
       </c>
       <c r="C101" s="4">
+        <v>48397</v>
+      </c>
+      <c r="D101" s="4">
+        <f>48000 +(E101*2)-1</f>
+        <v>48397</v>
+      </c>
+      <c r="E101" s="4">
         <v>199</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>101</v>
       </c>
-      <c r="E101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3671,16 +4383,23 @@
         <v>48</v>
       </c>
       <c r="C102" s="4">
+        <v>48401</v>
+      </c>
+      <c r="D102" s="4">
+        <f>48000 +(E102*2)-1</f>
+        <v>48401</v>
+      </c>
+      <c r="E102" s="4">
         <v>201</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>102</v>
       </c>
-      <c r="E102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3688,16 +4407,23 @@
         <v>48</v>
       </c>
       <c r="C103" s="4">
+        <v>48405</v>
+      </c>
+      <c r="D103" s="4">
+        <f>48000 +(E103*2)-1</f>
+        <v>48405</v>
+      </c>
+      <c r="E103" s="4">
         <v>203</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>103</v>
       </c>
-      <c r="E103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3705,16 +4431,23 @@
         <v>48</v>
       </c>
       <c r="C104" s="4">
+        <v>48409</v>
+      </c>
+      <c r="D104" s="4">
+        <f>48000 +(E104*2)-1</f>
+        <v>48409</v>
+      </c>
+      <c r="E104" s="4">
         <v>205</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>104</v>
       </c>
-      <c r="E104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3722,16 +4455,23 @@
         <v>48</v>
       </c>
       <c r="C105" s="4">
+        <v>48413</v>
+      </c>
+      <c r="D105" s="4">
+        <f>48000 +(E105*2)-1</f>
+        <v>48413</v>
+      </c>
+      <c r="E105" s="4">
         <v>207</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>105</v>
       </c>
-      <c r="E105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3739,16 +4479,23 @@
         <v>48</v>
       </c>
       <c r="C106" s="4">
+        <v>48417</v>
+      </c>
+      <c r="D106" s="4">
+        <f>48000 +(E106*2)-1</f>
+        <v>48417</v>
+      </c>
+      <c r="E106" s="4">
         <v>209</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>106</v>
       </c>
-      <c r="E106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3756,16 +4503,23 @@
         <v>48</v>
       </c>
       <c r="C107" s="4">
+        <v>48421</v>
+      </c>
+      <c r="D107" s="4">
+        <f>48000 +(E107*2)-1</f>
+        <v>48421</v>
+      </c>
+      <c r="E107" s="4">
         <v>211</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>107</v>
       </c>
-      <c r="E107" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3773,16 +4527,23 @@
         <v>48</v>
       </c>
       <c r="C108" s="4">
+        <v>48425</v>
+      </c>
+      <c r="D108" s="4">
+        <f>48000 +(E108*2)-1</f>
+        <v>48425</v>
+      </c>
+      <c r="E108" s="4">
         <v>213</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>108</v>
       </c>
-      <c r="E108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3790,16 +4551,23 @@
         <v>48</v>
       </c>
       <c r="C109" s="4">
+        <v>48429</v>
+      </c>
+      <c r="D109" s="4">
+        <f>48000 +(E109*2)-1</f>
+        <v>48429</v>
+      </c>
+      <c r="E109" s="4">
         <v>215</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>109</v>
       </c>
-      <c r="E109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3807,16 +4575,23 @@
         <v>48</v>
       </c>
       <c r="C110" s="4">
+        <v>48433</v>
+      </c>
+      <c r="D110" s="4">
+        <f>48000 +(E110*2)-1</f>
+        <v>48433</v>
+      </c>
+      <c r="E110" s="4">
         <v>217</v>
       </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
         <v>110</v>
       </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3824,16 +4599,23 @@
         <v>48</v>
       </c>
       <c r="C111" s="4">
+        <v>48437</v>
+      </c>
+      <c r="D111" s="4">
+        <f>48000 +(E111*2)-1</f>
+        <v>48437</v>
+      </c>
+      <c r="E111" s="4">
         <v>219</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
         <v>111</v>
       </c>
-      <c r="E111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3841,16 +4623,23 @@
         <v>48</v>
       </c>
       <c r="C112" s="4">
+        <v>48441</v>
+      </c>
+      <c r="D112" s="4">
+        <f>48000 +(E112*2)-1</f>
+        <v>48441</v>
+      </c>
+      <c r="E112" s="4">
         <v>221</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>112</v>
       </c>
-      <c r="E112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3858,16 +4647,23 @@
         <v>48</v>
       </c>
       <c r="C113" s="4">
+        <v>48445</v>
+      </c>
+      <c r="D113" s="4">
+        <f>48000 +(E113*2)-1</f>
+        <v>48445</v>
+      </c>
+      <c r="E113" s="4">
         <v>223</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>113</v>
       </c>
-      <c r="E113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -3875,16 +4671,23 @@
         <v>48</v>
       </c>
       <c r="C114" s="4">
+        <v>48449</v>
+      </c>
+      <c r="D114" s="4">
+        <f>48000 +(E114*2)-1</f>
+        <v>48449</v>
+      </c>
+      <c r="E114" s="4">
         <v>225</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>114</v>
       </c>
-      <c r="E114" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -3892,16 +4695,23 @@
         <v>48</v>
       </c>
       <c r="C115" s="4">
+        <v>48453</v>
+      </c>
+      <c r="D115" s="4">
+        <f>48000 +(E115*2)-1</f>
+        <v>48453</v>
+      </c>
+      <c r="E115" s="4">
         <v>227</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>115</v>
       </c>
-      <c r="E115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3909,16 +4719,23 @@
         <v>48</v>
       </c>
       <c r="C116" s="4">
+        <v>48457</v>
+      </c>
+      <c r="D116" s="4">
+        <f>48000 +(E116*2)-1</f>
+        <v>48457</v>
+      </c>
+      <c r="E116" s="4">
         <v>229</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F116" t="s">
         <v>116</v>
       </c>
-      <c r="E116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -3926,16 +4743,23 @@
         <v>48</v>
       </c>
       <c r="C117" s="4">
+        <v>48461</v>
+      </c>
+      <c r="D117" s="4">
+        <f>48000 +(E117*2)-1</f>
+        <v>48461</v>
+      </c>
+      <c r="E117" s="4">
         <v>231</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>117</v>
       </c>
-      <c r="E117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3943,16 +4767,23 @@
         <v>48</v>
       </c>
       <c r="C118" s="4">
+        <v>48465</v>
+      </c>
+      <c r="D118" s="4">
+        <f>48000 +(E118*2)-1</f>
+        <v>48465</v>
+      </c>
+      <c r="E118" s="4">
         <v>233</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>118</v>
       </c>
-      <c r="E118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -3960,16 +4791,23 @@
         <v>48</v>
       </c>
       <c r="C119" s="4">
+        <v>48469</v>
+      </c>
+      <c r="D119" s="4">
+        <f>48000 +(E119*2)-1</f>
+        <v>48469</v>
+      </c>
+      <c r="E119" s="4">
         <v>235</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>119</v>
       </c>
-      <c r="E119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -3977,16 +4815,23 @@
         <v>48</v>
       </c>
       <c r="C120" s="4">
+        <v>48473</v>
+      </c>
+      <c r="D120" s="4">
+        <f>48000 +(E120*2)-1</f>
+        <v>48473</v>
+      </c>
+      <c r="E120" s="4">
         <v>237</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>120</v>
       </c>
-      <c r="E120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3994,16 +4839,23 @@
         <v>48</v>
       </c>
       <c r="C121" s="4">
+        <v>48477</v>
+      </c>
+      <c r="D121" s="4">
+        <f>48000 +(E121*2)-1</f>
+        <v>48477</v>
+      </c>
+      <c r="E121" s="4">
         <v>239</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
         <v>121</v>
       </c>
-      <c r="E121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4011,16 +4863,23 @@
         <v>48</v>
       </c>
       <c r="C122" s="4">
+        <v>48481</v>
+      </c>
+      <c r="D122" s="4">
+        <f>48000 +(E122*2)-1</f>
+        <v>48481</v>
+      </c>
+      <c r="E122" s="4">
         <v>241</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>122</v>
       </c>
-      <c r="E122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4028,16 +4887,23 @@
         <v>48</v>
       </c>
       <c r="C123" s="4">
+        <v>48485</v>
+      </c>
+      <c r="D123" s="4">
+        <f>48000 +(E123*2)-1</f>
+        <v>48485</v>
+      </c>
+      <c r="E123" s="4">
         <v>243</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>123</v>
       </c>
-      <c r="E123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4045,16 +4911,23 @@
         <v>48</v>
       </c>
       <c r="C124" s="4">
+        <v>48489</v>
+      </c>
+      <c r="D124" s="4">
+        <f>48000 +(E124*2)-1</f>
+        <v>48489</v>
+      </c>
+      <c r="E124" s="4">
         <v>245</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>124</v>
       </c>
-      <c r="E124" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4062,16 +4935,23 @@
         <v>48</v>
       </c>
       <c r="C125" s="4">
+        <v>48493</v>
+      </c>
+      <c r="D125" s="4">
+        <f>48000 +(E125*2)-1</f>
+        <v>48493</v>
+      </c>
+      <c r="E125" s="4">
         <v>247</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>125</v>
       </c>
-      <c r="E125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4079,16 +4959,23 @@
         <v>48</v>
       </c>
       <c r="C126" s="4">
+        <v>48497</v>
+      </c>
+      <c r="D126" s="4">
+        <f>48000 +(E126*2)-1</f>
+        <v>48497</v>
+      </c>
+      <c r="E126" s="4">
         <v>249</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>126</v>
       </c>
-      <c r="E126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4096,16 +4983,23 @@
         <v>48</v>
       </c>
       <c r="C127" s="4">
+        <v>48501</v>
+      </c>
+      <c r="D127" s="4">
+        <f>48000 +(E127*2)-1</f>
+        <v>48501</v>
+      </c>
+      <c r="E127" s="4">
         <v>251</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>127</v>
       </c>
-      <c r="E127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4113,16 +5007,23 @@
         <v>48</v>
       </c>
       <c r="C128" s="4">
+        <v>48505</v>
+      </c>
+      <c r="D128" s="4">
+        <f>48000 +(E128*2)-1</f>
+        <v>48505</v>
+      </c>
+      <c r="E128" s="4">
         <v>253</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>128</v>
       </c>
-      <c r="E128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4130,16 +5031,23 @@
         <v>48</v>
       </c>
       <c r="C129" s="4">
+        <v>48509</v>
+      </c>
+      <c r="D129" s="4">
+        <f>48000 +(E129*2)-1</f>
+        <v>48509</v>
+      </c>
+      <c r="E129" s="4">
         <v>255</v>
       </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
         <v>129</v>
       </c>
-      <c r="E129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4147,16 +5055,23 @@
         <v>48</v>
       </c>
       <c r="C130" s="4">
+        <v>48513</v>
+      </c>
+      <c r="D130" s="4">
+        <f>48000 +(E130*2)-1</f>
+        <v>48513</v>
+      </c>
+      <c r="E130" s="4">
         <v>257</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>130</v>
       </c>
-      <c r="E130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4164,16 +5079,23 @@
         <v>48</v>
       </c>
       <c r="C131" s="4">
+        <v>48517</v>
+      </c>
+      <c r="D131" s="4">
+        <f>48000 +(E131*2)-1</f>
+        <v>48517</v>
+      </c>
+      <c r="E131" s="4">
         <v>259</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>131</v>
       </c>
-      <c r="E131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -4181,16 +5103,23 @@
         <v>48</v>
       </c>
       <c r="C132" s="4">
+        <v>48521</v>
+      </c>
+      <c r="D132" s="4">
+        <f>48000 +(E132*2)-1</f>
+        <v>48521</v>
+      </c>
+      <c r="E132" s="4">
         <v>261</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>132</v>
       </c>
-      <c r="E132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4198,16 +5127,23 @@
         <v>48</v>
       </c>
       <c r="C133" s="4">
+        <v>48525</v>
+      </c>
+      <c r="D133" s="4">
+        <f>48000 +(E133*2)-1</f>
+        <v>48525</v>
+      </c>
+      <c r="E133" s="4">
         <v>263</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>133</v>
       </c>
-      <c r="E133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4215,16 +5151,23 @@
         <v>48</v>
       </c>
       <c r="C134" s="4">
+        <v>48529</v>
+      </c>
+      <c r="D134" s="4">
+        <f>48000 +(E134*2)-1</f>
+        <v>48529</v>
+      </c>
+      <c r="E134" s="4">
         <v>265</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>134</v>
       </c>
-      <c r="E134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4232,16 +5175,23 @@
         <v>48</v>
       </c>
       <c r="C135" s="4">
+        <v>48533</v>
+      </c>
+      <c r="D135" s="4">
+        <f>48000 +(E135*2)-1</f>
+        <v>48533</v>
+      </c>
+      <c r="E135" s="4">
         <v>267</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>135</v>
       </c>
-      <c r="E135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -4249,16 +5199,23 @@
         <v>48</v>
       </c>
       <c r="C136" s="4">
+        <v>48537</v>
+      </c>
+      <c r="D136" s="4">
+        <f>48000 +(E136*2)-1</f>
+        <v>48537</v>
+      </c>
+      <c r="E136" s="4">
         <v>269</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>136</v>
       </c>
-      <c r="E136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -4266,16 +5223,23 @@
         <v>48</v>
       </c>
       <c r="C137" s="4">
+        <v>48541</v>
+      </c>
+      <c r="D137" s="4">
+        <f>48000 +(E137*2)-1</f>
+        <v>48541</v>
+      </c>
+      <c r="E137" s="4">
         <v>271</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>137</v>
       </c>
-      <c r="E137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -4283,16 +5247,23 @@
         <v>48</v>
       </c>
       <c r="C138" s="4">
+        <v>48545</v>
+      </c>
+      <c r="D138" s="4">
+        <f>48000 +(E138*2)-1</f>
+        <v>48545</v>
+      </c>
+      <c r="E138" s="4">
         <v>273</v>
       </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
         <v>138</v>
       </c>
-      <c r="E138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -4300,16 +5271,23 @@
         <v>48</v>
       </c>
       <c r="C139" s="4">
+        <v>48549</v>
+      </c>
+      <c r="D139" s="4">
+        <f>48000 +(E139*2)-1</f>
+        <v>48549</v>
+      </c>
+      <c r="E139" s="4">
         <v>275</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>139</v>
       </c>
-      <c r="E139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -4317,16 +5295,23 @@
         <v>48</v>
       </c>
       <c r="C140" s="4">
+        <v>48553</v>
+      </c>
+      <c r="D140" s="4">
+        <f>48000 +(E140*2)-1</f>
+        <v>48553</v>
+      </c>
+      <c r="E140" s="4">
         <v>277</v>
       </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
         <v>140</v>
       </c>
-      <c r="E140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -4334,16 +5319,23 @@
         <v>48</v>
       </c>
       <c r="C141" s="4">
+        <v>48557</v>
+      </c>
+      <c r="D141" s="4">
+        <f>48000 +(E141*2)-1</f>
+        <v>48557</v>
+      </c>
+      <c r="E141" s="4">
         <v>279</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>141</v>
       </c>
-      <c r="E141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -4351,16 +5343,23 @@
         <v>48</v>
       </c>
       <c r="C142" s="4">
+        <v>48561</v>
+      </c>
+      <c r="D142" s="4">
+        <f>48000 +(E142*2)-1</f>
+        <v>48561</v>
+      </c>
+      <c r="E142" s="4">
         <v>281</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>142</v>
       </c>
-      <c r="E142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -4368,16 +5367,23 @@
         <v>48</v>
       </c>
       <c r="C143" s="4">
+        <v>48565</v>
+      </c>
+      <c r="D143" s="4">
+        <f>48000 +(E143*2)-1</f>
+        <v>48565</v>
+      </c>
+      <c r="E143" s="4">
         <v>283</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>143</v>
       </c>
-      <c r="E143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -4385,16 +5391,23 @@
         <v>48</v>
       </c>
       <c r="C144" s="4">
+        <v>48569</v>
+      </c>
+      <c r="D144" s="4">
+        <f>48000 +(E144*2)-1</f>
+        <v>48569</v>
+      </c>
+      <c r="E144" s="4">
         <v>285</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>144</v>
       </c>
-      <c r="E144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4402,16 +5415,23 @@
         <v>48</v>
       </c>
       <c r="C145" s="4">
+        <v>48573</v>
+      </c>
+      <c r="D145" s="4">
+        <f>48000 +(E145*2)-1</f>
+        <v>48573</v>
+      </c>
+      <c r="E145" s="4">
         <v>287</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>145</v>
       </c>
-      <c r="E145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -4419,16 +5439,23 @@
         <v>48</v>
       </c>
       <c r="C146" s="4">
+        <v>48577</v>
+      </c>
+      <c r="D146" s="4">
+        <f>48000 +(E146*2)-1</f>
+        <v>48577</v>
+      </c>
+      <c r="E146" s="4">
         <v>289</v>
       </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>146</v>
       </c>
-      <c r="E146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -4436,16 +5463,23 @@
         <v>48</v>
       </c>
       <c r="C147" s="4">
+        <v>48581</v>
+      </c>
+      <c r="D147" s="4">
+        <f>48000 +(E147*2)-1</f>
+        <v>48581</v>
+      </c>
+      <c r="E147" s="4">
         <v>291</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>147</v>
       </c>
-      <c r="E147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -4453,16 +5487,23 @@
         <v>48</v>
       </c>
       <c r="C148" s="4">
+        <v>48585</v>
+      </c>
+      <c r="D148" s="4">
+        <f>48000 +(E148*2)-1</f>
+        <v>48585</v>
+      </c>
+      <c r="E148" s="4">
         <v>293</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>148</v>
       </c>
-      <c r="E148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4470,16 +5511,23 @@
         <v>48</v>
       </c>
       <c r="C149" s="4">
+        <v>48589</v>
+      </c>
+      <c r="D149" s="4">
+        <f>48000 +(E149*2)-1</f>
+        <v>48589</v>
+      </c>
+      <c r="E149" s="4">
         <v>295</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
         <v>149</v>
       </c>
-      <c r="E149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -4487,16 +5535,23 @@
         <v>48</v>
       </c>
       <c r="C150" s="4">
+        <v>48593</v>
+      </c>
+      <c r="D150" s="4">
+        <f>48000 +(E150*2)-1</f>
+        <v>48593</v>
+      </c>
+      <c r="E150" s="4">
         <v>297</v>
       </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>150</v>
       </c>
-      <c r="E150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -4504,16 +5559,23 @@
         <v>48</v>
       </c>
       <c r="C151" s="4">
+        <v>48597</v>
+      </c>
+      <c r="D151" s="4">
+        <f>48000 +(E151*2)-1</f>
+        <v>48597</v>
+      </c>
+      <c r="E151" s="4">
         <v>299</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>151</v>
       </c>
-      <c r="E151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4521,16 +5583,23 @@
         <v>48</v>
       </c>
       <c r="C152" s="4">
+        <v>48601</v>
+      </c>
+      <c r="D152" s="4">
+        <f>48000 +(E152*2)-1</f>
+        <v>48601</v>
+      </c>
+      <c r="E152" s="4">
         <v>301</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
         <v>152</v>
       </c>
-      <c r="E152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -4538,16 +5607,23 @@
         <v>48</v>
       </c>
       <c r="C153" s="4">
+        <v>48605</v>
+      </c>
+      <c r="D153" s="4">
+        <f>48000 +(E153*2)-1</f>
+        <v>48605</v>
+      </c>
+      <c r="E153" s="4">
         <v>303</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>153</v>
       </c>
-      <c r="E153" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -4555,16 +5631,23 @@
         <v>48</v>
       </c>
       <c r="C154" s="4">
+        <v>48609</v>
+      </c>
+      <c r="D154" s="4">
+        <f>48000 +(E154*2)-1</f>
+        <v>48609</v>
+      </c>
+      <c r="E154" s="4">
         <v>305</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>154</v>
       </c>
-      <c r="E154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -4572,16 +5655,23 @@
         <v>48</v>
       </c>
       <c r="C155" s="4">
+        <v>48613</v>
+      </c>
+      <c r="D155" s="4">
+        <f>48000 +(E155*2)-1</f>
+        <v>48613</v>
+      </c>
+      <c r="E155" s="4">
         <v>307</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>155</v>
       </c>
-      <c r="E155" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -4589,16 +5679,23 @@
         <v>48</v>
       </c>
       <c r="C156" s="4">
+        <v>48617</v>
+      </c>
+      <c r="D156" s="4">
+        <f>48000 +(E156*2)-1</f>
+        <v>48617</v>
+      </c>
+      <c r="E156" s="4">
         <v>309</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
         <v>156</v>
       </c>
-      <c r="E156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -4606,16 +5703,23 @@
         <v>48</v>
       </c>
       <c r="C157" s="4">
+        <v>48621</v>
+      </c>
+      <c r="D157" s="4">
+        <f>48000 +(E157*2)-1</f>
+        <v>48621</v>
+      </c>
+      <c r="E157" s="4">
         <v>311</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>157</v>
       </c>
-      <c r="E157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -4623,16 +5727,23 @@
         <v>48</v>
       </c>
       <c r="C158" s="4">
+        <v>48625</v>
+      </c>
+      <c r="D158" s="4">
+        <f>48000 +(E158*2)-1</f>
+        <v>48625</v>
+      </c>
+      <c r="E158" s="4">
         <v>313</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
         <v>158</v>
       </c>
-      <c r="E158" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -4640,16 +5751,23 @@
         <v>48</v>
       </c>
       <c r="C159" s="4">
+        <v>48629</v>
+      </c>
+      <c r="D159" s="4">
+        <f>48000 +(E159*2)-1</f>
+        <v>48629</v>
+      </c>
+      <c r="E159" s="4">
         <v>315</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>159</v>
       </c>
-      <c r="E159" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -4657,16 +5775,23 @@
         <v>48</v>
       </c>
       <c r="C160" s="4">
+        <v>48633</v>
+      </c>
+      <c r="D160" s="4">
+        <f>48000 +(E160*2)-1</f>
+        <v>48633</v>
+      </c>
+      <c r="E160" s="4">
         <v>317</v>
       </c>
-      <c r="D160" t="s">
+      <c r="F160" t="s">
         <v>160</v>
       </c>
-      <c r="E160" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -4674,16 +5799,23 @@
         <v>48</v>
       </c>
       <c r="C161" s="4">
+        <v>48637</v>
+      </c>
+      <c r="D161" s="4">
+        <f>48000 +(E161*2)-1</f>
+        <v>48637</v>
+      </c>
+      <c r="E161" s="4">
         <v>319</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>161</v>
       </c>
-      <c r="E161" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -4691,16 +5823,23 @@
         <v>48</v>
       </c>
       <c r="C162" s="4">
+        <v>48641</v>
+      </c>
+      <c r="D162" s="4">
+        <f>48000 +(E162*2)-1</f>
+        <v>48641</v>
+      </c>
+      <c r="E162" s="4">
         <v>321</v>
       </c>
-      <c r="D162" t="s">
+      <c r="F162" t="s">
         <v>162</v>
       </c>
-      <c r="E162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -4708,16 +5847,23 @@
         <v>48</v>
       </c>
       <c r="C163" s="4">
+        <v>48645</v>
+      </c>
+      <c r="D163" s="4">
+        <f>48000 +(E163*2)-1</f>
+        <v>48645</v>
+      </c>
+      <c r="E163" s="4">
         <v>323</v>
       </c>
-      <c r="D163" t="s">
+      <c r="F163" t="s">
         <v>163</v>
       </c>
-      <c r="E163" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -4725,16 +5871,23 @@
         <v>48</v>
       </c>
       <c r="C164" s="4">
+        <v>48649</v>
+      </c>
+      <c r="D164" s="4">
+        <f>48000 +(E164*2)-1</f>
+        <v>48649</v>
+      </c>
+      <c r="E164" s="4">
         <v>325</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>164</v>
       </c>
-      <c r="E164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -4742,16 +5895,23 @@
         <v>48</v>
       </c>
       <c r="C165" s="4">
+        <v>48653</v>
+      </c>
+      <c r="D165" s="4">
+        <f>48000 +(E165*2)-1</f>
+        <v>48653</v>
+      </c>
+      <c r="E165" s="4">
         <v>327</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
         <v>165</v>
       </c>
-      <c r="E165" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -4759,16 +5919,23 @@
         <v>48</v>
       </c>
       <c r="C166" s="4">
+        <v>48657</v>
+      </c>
+      <c r="D166" s="4">
+        <f>48000 +(E166*2)-1</f>
+        <v>48657</v>
+      </c>
+      <c r="E166" s="4">
         <v>329</v>
       </c>
-      <c r="D166" t="s">
+      <c r="F166" t="s">
         <v>166</v>
       </c>
-      <c r="E166" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -4776,16 +5943,23 @@
         <v>48</v>
       </c>
       <c r="C167" s="4">
+        <v>48661</v>
+      </c>
+      <c r="D167" s="4">
+        <f>48000 +(E167*2)-1</f>
+        <v>48661</v>
+      </c>
+      <c r="E167" s="4">
         <v>331</v>
       </c>
-      <c r="D167" t="s">
+      <c r="F167" t="s">
         <v>167</v>
       </c>
-      <c r="E167" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -4793,16 +5967,23 @@
         <v>48</v>
       </c>
       <c r="C168" s="4">
+        <v>48665</v>
+      </c>
+      <c r="D168" s="4">
+        <f>48000 +(E168*2)-1</f>
+        <v>48665</v>
+      </c>
+      <c r="E168" s="4">
         <v>333</v>
       </c>
-      <c r="D168" t="s">
+      <c r="F168" t="s">
         <v>168</v>
       </c>
-      <c r="E168" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4810,16 +5991,23 @@
         <v>48</v>
       </c>
       <c r="C169" s="4">
+        <v>48669</v>
+      </c>
+      <c r="D169" s="4">
+        <f>48000 +(E169*2)-1</f>
+        <v>48669</v>
+      </c>
+      <c r="E169" s="4">
         <v>335</v>
       </c>
-      <c r="D169" t="s">
+      <c r="F169" t="s">
         <v>169</v>
       </c>
-      <c r="E169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -4827,16 +6015,23 @@
         <v>48</v>
       </c>
       <c r="C170" s="4">
+        <v>48673</v>
+      </c>
+      <c r="D170" s="4">
+        <f>48000 +(E170*2)-1</f>
+        <v>48673</v>
+      </c>
+      <c r="E170" s="4">
         <v>337</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
         <v>170</v>
       </c>
-      <c r="E170" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -4844,16 +6039,23 @@
         <v>48</v>
       </c>
       <c r="C171" s="4">
+        <v>48677</v>
+      </c>
+      <c r="D171" s="4">
+        <f>48000 +(E171*2)-1</f>
+        <v>48677</v>
+      </c>
+      <c r="E171" s="4">
         <v>339</v>
       </c>
-      <c r="D171" t="s">
+      <c r="F171" t="s">
         <v>171</v>
       </c>
-      <c r="E171" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -4861,16 +6063,23 @@
         <v>48</v>
       </c>
       <c r="C172" s="4">
+        <v>48681</v>
+      </c>
+      <c r="D172" s="4">
+        <f>48000 +(E172*2)-1</f>
+        <v>48681</v>
+      </c>
+      <c r="E172" s="4">
         <v>341</v>
       </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
         <v>172</v>
       </c>
-      <c r="E172" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -4878,16 +6087,23 @@
         <v>48</v>
       </c>
       <c r="C173" s="4">
+        <v>48685</v>
+      </c>
+      <c r="D173" s="4">
+        <f>48000 +(E173*2)-1</f>
+        <v>48685</v>
+      </c>
+      <c r="E173" s="4">
         <v>343</v>
       </c>
-      <c r="D173" t="s">
+      <c r="F173" t="s">
         <v>173</v>
       </c>
-      <c r="E173" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4895,16 +6111,23 @@
         <v>48</v>
       </c>
       <c r="C174" s="4">
+        <v>48689</v>
+      </c>
+      <c r="D174" s="4">
+        <f>48000 +(E174*2)-1</f>
+        <v>48689</v>
+      </c>
+      <c r="E174" s="4">
         <v>345</v>
       </c>
-      <c r="D174" t="s">
+      <c r="F174" t="s">
         <v>174</v>
       </c>
-      <c r="E174" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -4912,16 +6135,23 @@
         <v>48</v>
       </c>
       <c r="C175" s="4">
+        <v>48693</v>
+      </c>
+      <c r="D175" s="4">
+        <f>48000 +(E175*2)-1</f>
+        <v>48693</v>
+      </c>
+      <c r="E175" s="4">
         <v>347</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
         <v>175</v>
       </c>
-      <c r="E175" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -4929,16 +6159,23 @@
         <v>48</v>
       </c>
       <c r="C176" s="4">
+        <v>48697</v>
+      </c>
+      <c r="D176" s="4">
+        <f>48000 +(E176*2)-1</f>
+        <v>48697</v>
+      </c>
+      <c r="E176" s="4">
         <v>349</v>
       </c>
-      <c r="D176" t="s">
+      <c r="F176" t="s">
         <v>176</v>
       </c>
-      <c r="E176" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -4946,16 +6183,23 @@
         <v>48</v>
       </c>
       <c r="C177" s="4">
+        <v>48701</v>
+      </c>
+      <c r="D177" s="4">
+        <f>48000 +(E177*2)-1</f>
+        <v>48701</v>
+      </c>
+      <c r="E177" s="4">
         <v>351</v>
       </c>
-      <c r="D177" t="s">
+      <c r="F177" t="s">
         <v>177</v>
       </c>
-      <c r="E177" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -4963,16 +6207,23 @@
         <v>48</v>
       </c>
       <c r="C178" s="4">
+        <v>48705</v>
+      </c>
+      <c r="D178" s="4">
+        <f>48000 +(E178*2)-1</f>
+        <v>48705</v>
+      </c>
+      <c r="E178" s="4">
         <v>353</v>
       </c>
-      <c r="D178" t="s">
+      <c r="F178" t="s">
         <v>178</v>
       </c>
-      <c r="E178" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -4980,16 +6231,23 @@
         <v>48</v>
       </c>
       <c r="C179" s="4">
+        <v>48709</v>
+      </c>
+      <c r="D179" s="4">
+        <f>48000 +(E179*2)-1</f>
+        <v>48709</v>
+      </c>
+      <c r="E179" s="4">
         <v>355</v>
       </c>
-      <c r="D179" t="s">
+      <c r="F179" t="s">
         <v>179</v>
       </c>
-      <c r="E179" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -4997,16 +6255,23 @@
         <v>48</v>
       </c>
       <c r="C180" s="4">
+        <v>48713</v>
+      </c>
+      <c r="D180" s="4">
+        <f>48000 +(E180*2)-1</f>
+        <v>48713</v>
+      </c>
+      <c r="E180" s="4">
         <v>357</v>
       </c>
-      <c r="D180" t="s">
+      <c r="F180" t="s">
         <v>180</v>
       </c>
-      <c r="E180" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -5014,16 +6279,23 @@
         <v>48</v>
       </c>
       <c r="C181" s="4">
+        <v>48717</v>
+      </c>
+      <c r="D181" s="4">
+        <f>48000 +(E181*2)-1</f>
+        <v>48717</v>
+      </c>
+      <c r="E181" s="4">
         <v>359</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" t="s">
         <v>181</v>
       </c>
-      <c r="E181" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -5031,16 +6303,23 @@
         <v>48</v>
       </c>
       <c r="C182" s="4">
+        <v>48721</v>
+      </c>
+      <c r="D182" s="4">
+        <f>48000 +(E182*2)-1</f>
+        <v>48721</v>
+      </c>
+      <c r="E182" s="4">
         <v>361</v>
       </c>
-      <c r="D182" t="s">
+      <c r="F182" t="s">
         <v>182</v>
       </c>
-      <c r="E182" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -5048,16 +6327,23 @@
         <v>48</v>
       </c>
       <c r="C183" s="4">
+        <v>48725</v>
+      </c>
+      <c r="D183" s="4">
+        <f>48000 +(E183*2)-1</f>
+        <v>48725</v>
+      </c>
+      <c r="E183" s="4">
         <v>363</v>
       </c>
-      <c r="D183" t="s">
+      <c r="F183" t="s">
         <v>183</v>
       </c>
-      <c r="E183" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -5065,16 +6351,23 @@
         <v>48</v>
       </c>
       <c r="C184" s="4">
+        <v>48729</v>
+      </c>
+      <c r="D184" s="4">
+        <f>48000 +(E184*2)-1</f>
+        <v>48729</v>
+      </c>
+      <c r="E184" s="4">
         <v>365</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>184</v>
       </c>
-      <c r="E184" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -5082,16 +6375,23 @@
         <v>48</v>
       </c>
       <c r="C185" s="4">
+        <v>48733</v>
+      </c>
+      <c r="D185" s="4">
+        <f>48000 +(E185*2)-1</f>
+        <v>48733</v>
+      </c>
+      <c r="E185" s="4">
         <v>367</v>
       </c>
-      <c r="D185" t="s">
+      <c r="F185" t="s">
         <v>185</v>
       </c>
-      <c r="E185" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -5099,16 +6399,23 @@
         <v>48</v>
       </c>
       <c r="C186" s="4">
+        <v>48737</v>
+      </c>
+      <c r="D186" s="4">
+        <f>48000 +(E186*2)-1</f>
+        <v>48737</v>
+      </c>
+      <c r="E186" s="4">
         <v>369</v>
       </c>
-      <c r="D186" t="s">
+      <c r="F186" t="s">
         <v>186</v>
       </c>
-      <c r="E186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -5116,16 +6423,23 @@
         <v>48</v>
       </c>
       <c r="C187" s="4">
+        <v>48741</v>
+      </c>
+      <c r="D187" s="4">
+        <f>48000 +(E187*2)-1</f>
+        <v>48741</v>
+      </c>
+      <c r="E187" s="4">
         <v>371</v>
       </c>
-      <c r="D187" t="s">
+      <c r="F187" t="s">
         <v>187</v>
       </c>
-      <c r="E187" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -5133,16 +6447,23 @@
         <v>48</v>
       </c>
       <c r="C188" s="4">
+        <v>48745</v>
+      </c>
+      <c r="D188" s="4">
+        <f>48000 +(E188*2)-1</f>
+        <v>48745</v>
+      </c>
+      <c r="E188" s="4">
         <v>373</v>
       </c>
-      <c r="D188" t="s">
+      <c r="F188" t="s">
         <v>188</v>
       </c>
-      <c r="E188" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -5150,16 +6471,23 @@
         <v>48</v>
       </c>
       <c r="C189" s="4">
+        <v>48749</v>
+      </c>
+      <c r="D189" s="4">
+        <f>48000 +(E189*2)-1</f>
+        <v>48749</v>
+      </c>
+      <c r="E189" s="4">
         <v>375</v>
       </c>
-      <c r="D189" t="s">
+      <c r="F189" t="s">
         <v>189</v>
       </c>
-      <c r="E189" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -5167,16 +6495,23 @@
         <v>48</v>
       </c>
       <c r="C190" s="4">
+        <v>48753</v>
+      </c>
+      <c r="D190" s="4">
+        <f>48000 +(E190*2)-1</f>
+        <v>48753</v>
+      </c>
+      <c r="E190" s="4">
         <v>377</v>
       </c>
-      <c r="D190" t="s">
+      <c r="F190" t="s">
         <v>190</v>
       </c>
-      <c r="E190" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -5184,16 +6519,23 @@
         <v>48</v>
       </c>
       <c r="C191" s="4">
+        <v>48757</v>
+      </c>
+      <c r="D191" s="4">
+        <f>48000 +(E191*2)-1</f>
+        <v>48757</v>
+      </c>
+      <c r="E191" s="4">
         <v>379</v>
       </c>
-      <c r="D191" t="s">
+      <c r="F191" t="s">
         <v>191</v>
       </c>
-      <c r="E191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -5201,16 +6543,23 @@
         <v>48</v>
       </c>
       <c r="C192" s="4">
+        <v>48761</v>
+      </c>
+      <c r="D192" s="4">
+        <f>48000 +(E192*2)-1</f>
+        <v>48761</v>
+      </c>
+      <c r="E192" s="4">
         <v>381</v>
       </c>
-      <c r="D192" t="s">
+      <c r="F192" t="s">
         <v>192</v>
       </c>
-      <c r="E192" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -5218,16 +6567,23 @@
         <v>48</v>
       </c>
       <c r="C193" s="4">
+        <v>48765</v>
+      </c>
+      <c r="D193" s="4">
+        <f>48000 +(E193*2)-1</f>
+        <v>48765</v>
+      </c>
+      <c r="E193" s="4">
         <v>383</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" t="s">
         <v>193</v>
       </c>
-      <c r="E193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -5235,16 +6591,23 @@
         <v>48</v>
       </c>
       <c r="C194" s="4">
+        <v>48769</v>
+      </c>
+      <c r="D194" s="4">
+        <f>48000 +(E194*2)-1</f>
+        <v>48769</v>
+      </c>
+      <c r="E194" s="4">
         <v>385</v>
       </c>
-      <c r="D194" t="s">
+      <c r="F194" t="s">
         <v>194</v>
       </c>
-      <c r="E194" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -5252,16 +6615,23 @@
         <v>48</v>
       </c>
       <c r="C195" s="4">
+        <v>48773</v>
+      </c>
+      <c r="D195" s="4">
+        <f>48000 +(E195*2)-1</f>
+        <v>48773</v>
+      </c>
+      <c r="E195" s="4">
         <v>387</v>
       </c>
-      <c r="D195" t="s">
+      <c r="F195" t="s">
         <v>195</v>
       </c>
-      <c r="E195" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -5269,16 +6639,23 @@
         <v>48</v>
       </c>
       <c r="C196" s="4">
+        <v>48777</v>
+      </c>
+      <c r="D196" s="4">
+        <f>48000 +(E196*2)-1</f>
+        <v>48777</v>
+      </c>
+      <c r="E196" s="4">
         <v>389</v>
       </c>
-      <c r="D196" t="s">
+      <c r="F196" t="s">
         <v>196</v>
       </c>
-      <c r="E196" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -5286,16 +6663,23 @@
         <v>48</v>
       </c>
       <c r="C197" s="4">
+        <v>48781</v>
+      </c>
+      <c r="D197" s="4">
+        <f>48000 +(E197*2)-1</f>
+        <v>48781</v>
+      </c>
+      <c r="E197" s="4">
         <v>391</v>
       </c>
-      <c r="D197" t="s">
+      <c r="F197" t="s">
         <v>197</v>
       </c>
-      <c r="E197" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -5303,16 +6687,23 @@
         <v>48</v>
       </c>
       <c r="C198" s="4">
+        <v>48785</v>
+      </c>
+      <c r="D198" s="4">
+        <f>48000 +(E198*2)-1</f>
+        <v>48785</v>
+      </c>
+      <c r="E198" s="4">
         <v>393</v>
       </c>
-      <c r="D198" t="s">
+      <c r="F198" t="s">
         <v>198</v>
       </c>
-      <c r="E198" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -5320,16 +6711,23 @@
         <v>48</v>
       </c>
       <c r="C199" s="4">
+        <v>48789</v>
+      </c>
+      <c r="D199" s="4">
+        <f>48000 +(E199*2)-1</f>
+        <v>48789</v>
+      </c>
+      <c r="E199" s="4">
         <v>395</v>
       </c>
-      <c r="D199" t="s">
+      <c r="F199" t="s">
         <v>199</v>
       </c>
-      <c r="E199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -5337,16 +6735,23 @@
         <v>48</v>
       </c>
       <c r="C200" s="4">
+        <v>48793</v>
+      </c>
+      <c r="D200" s="4">
+        <f>48000 +(E200*2)-1</f>
+        <v>48793</v>
+      </c>
+      <c r="E200" s="4">
         <v>397</v>
       </c>
-      <c r="D200" t="s">
+      <c r="F200" t="s">
         <v>200</v>
       </c>
-      <c r="E200" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -5354,16 +6759,23 @@
         <v>48</v>
       </c>
       <c r="C201" s="4">
+        <v>48797</v>
+      </c>
+      <c r="D201" s="4">
+        <f>48000 +(E201*2)-1</f>
+        <v>48797</v>
+      </c>
+      <c r="E201" s="4">
         <v>399</v>
       </c>
-      <c r="D201" t="s">
+      <c r="F201" t="s">
         <v>201</v>
       </c>
-      <c r="E201" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -5371,16 +6783,23 @@
         <v>48</v>
       </c>
       <c r="C202" s="4">
+        <v>48801</v>
+      </c>
+      <c r="D202" s="4">
+        <f>48000 +(E202*2)-1</f>
+        <v>48801</v>
+      </c>
+      <c r="E202" s="4">
         <v>401</v>
       </c>
-      <c r="D202" t="s">
+      <c r="F202" t="s">
         <v>202</v>
       </c>
-      <c r="E202" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5388,16 +6807,23 @@
         <v>48</v>
       </c>
       <c r="C203" s="4">
+        <v>48805</v>
+      </c>
+      <c r="D203" s="4">
+        <f>48000 +(E203*2)-1</f>
+        <v>48805</v>
+      </c>
+      <c r="E203" s="4">
         <v>403</v>
       </c>
-      <c r="D203" t="s">
+      <c r="F203" t="s">
         <v>203</v>
       </c>
-      <c r="E203" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -5405,16 +6831,23 @@
         <v>48</v>
       </c>
       <c r="C204" s="4">
+        <v>48809</v>
+      </c>
+      <c r="D204" s="4">
+        <f>48000 +(E204*2)-1</f>
+        <v>48809</v>
+      </c>
+      <c r="E204" s="4">
         <v>405</v>
       </c>
-      <c r="D204" t="s">
+      <c r="F204" t="s">
         <v>204</v>
       </c>
-      <c r="E204" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -5422,16 +6855,23 @@
         <v>48</v>
       </c>
       <c r="C205" s="4">
+        <v>48813</v>
+      </c>
+      <c r="D205" s="4">
+        <f>48000 +(E205*2)-1</f>
+        <v>48813</v>
+      </c>
+      <c r="E205" s="4">
         <v>407</v>
       </c>
-      <c r="D205" t="s">
+      <c r="F205" t="s">
         <v>205</v>
       </c>
-      <c r="E205" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -5439,16 +6879,23 @@
         <v>48</v>
       </c>
       <c r="C206" s="4">
+        <v>48817</v>
+      </c>
+      <c r="D206" s="4">
+        <f>48000 +(E206*2)-1</f>
+        <v>48817</v>
+      </c>
+      <c r="E206" s="4">
         <v>409</v>
       </c>
-      <c r="D206" t="s">
+      <c r="F206" t="s">
         <v>206</v>
       </c>
-      <c r="E206" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -5456,16 +6903,23 @@
         <v>48</v>
       </c>
       <c r="C207" s="4">
+        <v>48821</v>
+      </c>
+      <c r="D207" s="4">
+        <f>48000 +(E207*2)-1</f>
+        <v>48821</v>
+      </c>
+      <c r="E207" s="4">
         <v>411</v>
       </c>
-      <c r="D207" t="s">
+      <c r="F207" t="s">
         <v>207</v>
       </c>
-      <c r="E207" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -5473,16 +6927,23 @@
         <v>48</v>
       </c>
       <c r="C208" s="4">
+        <v>48825</v>
+      </c>
+      <c r="D208" s="4">
+        <f>48000 +(E208*2)-1</f>
+        <v>48825</v>
+      </c>
+      <c r="E208" s="4">
         <v>413</v>
       </c>
-      <c r="D208" t="s">
+      <c r="F208" t="s">
         <v>208</v>
       </c>
-      <c r="E208" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5490,16 +6951,23 @@
         <v>48</v>
       </c>
       <c r="C209" s="4">
+        <v>48829</v>
+      </c>
+      <c r="D209" s="4">
+        <f>48000 +(E209*2)-1</f>
+        <v>48829</v>
+      </c>
+      <c r="E209" s="4">
         <v>415</v>
       </c>
-      <c r="D209" t="s">
+      <c r="F209" t="s">
         <v>209</v>
       </c>
-      <c r="E209" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -5507,16 +6975,23 @@
         <v>48</v>
       </c>
       <c r="C210" s="4">
+        <v>48833</v>
+      </c>
+      <c r="D210" s="4">
+        <f>48000 +(E210*2)-1</f>
+        <v>48833</v>
+      </c>
+      <c r="E210" s="4">
         <v>417</v>
       </c>
-      <c r="D210" t="s">
+      <c r="F210" t="s">
         <v>210</v>
       </c>
-      <c r="E210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -5524,16 +6999,23 @@
         <v>48</v>
       </c>
       <c r="C211" s="4">
+        <v>48837</v>
+      </c>
+      <c r="D211" s="4">
+        <f>48000 +(E211*2)-1</f>
+        <v>48837</v>
+      </c>
+      <c r="E211" s="4">
         <v>419</v>
       </c>
-      <c r="D211" t="s">
+      <c r="F211" t="s">
         <v>211</v>
       </c>
-      <c r="E211" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -5541,16 +7023,23 @@
         <v>48</v>
       </c>
       <c r="C212" s="4">
+        <v>48841</v>
+      </c>
+      <c r="D212" s="4">
+        <f>48000 +(E212*2)-1</f>
+        <v>48841</v>
+      </c>
+      <c r="E212" s="4">
         <v>421</v>
       </c>
-      <c r="D212" t="s">
+      <c r="F212" t="s">
         <v>212</v>
       </c>
-      <c r="E212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -5558,16 +7047,23 @@
         <v>48</v>
       </c>
       <c r="C213" s="4">
+        <v>48845</v>
+      </c>
+      <c r="D213" s="4">
+        <f>48000 +(E213*2)-1</f>
+        <v>48845</v>
+      </c>
+      <c r="E213" s="4">
         <v>423</v>
       </c>
-      <c r="D213" t="s">
+      <c r="F213" t="s">
         <v>213</v>
       </c>
-      <c r="E213" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -5575,16 +7071,23 @@
         <v>48</v>
       </c>
       <c r="C214" s="4">
+        <v>48849</v>
+      </c>
+      <c r="D214" s="4">
+        <f>48000 +(E214*2)-1</f>
+        <v>48849</v>
+      </c>
+      <c r="E214" s="4">
         <v>425</v>
       </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>214</v>
       </c>
-      <c r="E214" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -5592,16 +7095,23 @@
         <v>48</v>
       </c>
       <c r="C215" s="4">
+        <v>48853</v>
+      </c>
+      <c r="D215" s="4">
+        <f>48000 +(E215*2)-1</f>
+        <v>48853</v>
+      </c>
+      <c r="E215" s="4">
         <v>427</v>
       </c>
-      <c r="D215" t="s">
+      <c r="F215" t="s">
         <v>215</v>
       </c>
-      <c r="E215" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -5609,16 +7119,23 @@
         <v>48</v>
       </c>
       <c r="C216" s="4">
+        <v>48857</v>
+      </c>
+      <c r="D216" s="4">
+        <f>48000 +(E216*2)-1</f>
+        <v>48857</v>
+      </c>
+      <c r="E216" s="4">
         <v>429</v>
       </c>
-      <c r="D216" t="s">
+      <c r="F216" t="s">
         <v>216</v>
       </c>
-      <c r="E216" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -5626,16 +7143,23 @@
         <v>48</v>
       </c>
       <c r="C217" s="4">
+        <v>48861</v>
+      </c>
+      <c r="D217" s="4">
+        <f>48000 +(E217*2)-1</f>
+        <v>48861</v>
+      </c>
+      <c r="E217" s="4">
         <v>431</v>
       </c>
-      <c r="D217" t="s">
+      <c r="F217" t="s">
         <v>217</v>
       </c>
-      <c r="E217" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -5643,16 +7167,23 @@
         <v>48</v>
       </c>
       <c r="C218" s="4">
+        <v>48865</v>
+      </c>
+      <c r="D218" s="4">
+        <f>48000 +(E218*2)-1</f>
+        <v>48865</v>
+      </c>
+      <c r="E218" s="4">
         <v>433</v>
       </c>
-      <c r="D218" t="s">
+      <c r="F218" t="s">
         <v>218</v>
       </c>
-      <c r="E218" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -5660,16 +7191,23 @@
         <v>48</v>
       </c>
       <c r="C219" s="4">
+        <v>48869</v>
+      </c>
+      <c r="D219" s="4">
+        <f>48000 +(E219*2)-1</f>
+        <v>48869</v>
+      </c>
+      <c r="E219" s="4">
         <v>435</v>
       </c>
-      <c r="D219" t="s">
+      <c r="F219" t="s">
         <v>219</v>
       </c>
-      <c r="E219" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -5677,16 +7215,23 @@
         <v>48</v>
       </c>
       <c r="C220" s="4">
+        <v>48873</v>
+      </c>
+      <c r="D220" s="4">
+        <f>48000 +(E220*2)-1</f>
+        <v>48873</v>
+      </c>
+      <c r="E220" s="4">
         <v>437</v>
       </c>
-      <c r="D220" t="s">
+      <c r="F220" t="s">
         <v>220</v>
       </c>
-      <c r="E220" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -5694,16 +7239,23 @@
         <v>48</v>
       </c>
       <c r="C221" s="4">
+        <v>48877</v>
+      </c>
+      <c r="D221" s="4">
+        <f>48000 +(E221*2)-1</f>
+        <v>48877</v>
+      </c>
+      <c r="E221" s="4">
         <v>439</v>
       </c>
-      <c r="D221" t="s">
+      <c r="F221" t="s">
         <v>221</v>
       </c>
-      <c r="E221" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -5711,16 +7263,23 @@
         <v>48</v>
       </c>
       <c r="C222" s="4">
+        <v>48881</v>
+      </c>
+      <c r="D222" s="4">
+        <f>48000 +(E222*2)-1</f>
+        <v>48881</v>
+      </c>
+      <c r="E222" s="4">
         <v>441</v>
       </c>
-      <c r="D222" t="s">
+      <c r="F222" t="s">
         <v>222</v>
       </c>
-      <c r="E222" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -5728,16 +7287,23 @@
         <v>48</v>
       </c>
       <c r="C223" s="4">
+        <v>48885</v>
+      </c>
+      <c r="D223" s="4">
+        <f>48000 +(E223*2)-1</f>
+        <v>48885</v>
+      </c>
+      <c r="E223" s="4">
         <v>443</v>
       </c>
-      <c r="D223" t="s">
+      <c r="F223" t="s">
         <v>223</v>
       </c>
-      <c r="E223" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -5745,16 +7311,23 @@
         <v>48</v>
       </c>
       <c r="C224" s="4">
+        <v>48889</v>
+      </c>
+      <c r="D224" s="4">
+        <f>48000 +(E224*2)-1</f>
+        <v>48889</v>
+      </c>
+      <c r="E224" s="4">
         <v>445</v>
       </c>
-      <c r="D224" t="s">
+      <c r="F224" t="s">
         <v>224</v>
       </c>
-      <c r="E224" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -5762,16 +7335,23 @@
         <v>48</v>
       </c>
       <c r="C225" s="4">
+        <v>48893</v>
+      </c>
+      <c r="D225" s="4">
+        <f>48000 +(E225*2)-1</f>
+        <v>48893</v>
+      </c>
+      <c r="E225" s="4">
         <v>447</v>
       </c>
-      <c r="D225" t="s">
+      <c r="F225" t="s">
         <v>225</v>
       </c>
-      <c r="E225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -5779,16 +7359,23 @@
         <v>48</v>
       </c>
       <c r="C226" s="4">
+        <v>48897</v>
+      </c>
+      <c r="D226" s="4">
+        <f>48000 +(E226*2)-1</f>
+        <v>48897</v>
+      </c>
+      <c r="E226" s="4">
         <v>449</v>
       </c>
-      <c r="D226" t="s">
+      <c r="F226" t="s">
         <v>226</v>
       </c>
-      <c r="E226" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -5796,16 +7383,23 @@
         <v>48</v>
       </c>
       <c r="C227" s="4">
+        <v>48901</v>
+      </c>
+      <c r="D227" s="4">
+        <f>48000 +(E227*2)-1</f>
+        <v>48901</v>
+      </c>
+      <c r="E227" s="4">
         <v>451</v>
       </c>
-      <c r="D227" t="s">
+      <c r="F227" t="s">
         <v>227</v>
       </c>
-      <c r="E227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -5813,16 +7407,23 @@
         <v>48</v>
       </c>
       <c r="C228" s="4">
+        <v>48905</v>
+      </c>
+      <c r="D228" s="4">
+        <f>48000 +(E228*2)-1</f>
+        <v>48905</v>
+      </c>
+      <c r="E228" s="4">
         <v>453</v>
       </c>
-      <c r="D228" t="s">
+      <c r="F228" t="s">
         <v>228</v>
       </c>
-      <c r="E228" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -5830,16 +7431,23 @@
         <v>48</v>
       </c>
       <c r="C229" s="4">
+        <v>48909</v>
+      </c>
+      <c r="D229" s="4">
+        <f>48000 +(E229*2)-1</f>
+        <v>48909</v>
+      </c>
+      <c r="E229" s="4">
         <v>455</v>
       </c>
-      <c r="D229" t="s">
+      <c r="F229" t="s">
         <v>229</v>
       </c>
-      <c r="E229" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -5847,16 +7455,23 @@
         <v>48</v>
       </c>
       <c r="C230" s="4">
+        <v>48913</v>
+      </c>
+      <c r="D230" s="4">
+        <f>48000 +(E230*2)-1</f>
+        <v>48913</v>
+      </c>
+      <c r="E230" s="4">
         <v>457</v>
       </c>
-      <c r="D230" t="s">
+      <c r="F230" t="s">
         <v>230</v>
       </c>
-      <c r="E230" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -5864,16 +7479,23 @@
         <v>48</v>
       </c>
       <c r="C231" s="4">
+        <v>48917</v>
+      </c>
+      <c r="D231" s="4">
+        <f>48000 +(E231*2)-1</f>
+        <v>48917</v>
+      </c>
+      <c r="E231" s="4">
         <v>459</v>
       </c>
-      <c r="D231" t="s">
+      <c r="F231" t="s">
         <v>231</v>
       </c>
-      <c r="E231" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -5881,16 +7503,23 @@
         <v>48</v>
       </c>
       <c r="C232" s="4">
+        <v>48921</v>
+      </c>
+      <c r="D232" s="4">
+        <f>48000 +(E232*2)-1</f>
+        <v>48921</v>
+      </c>
+      <c r="E232" s="4">
         <v>461</v>
       </c>
-      <c r="D232" t="s">
+      <c r="F232" t="s">
         <v>232</v>
       </c>
-      <c r="E232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -5898,16 +7527,23 @@
         <v>48</v>
       </c>
       <c r="C233" s="4">
+        <v>48925</v>
+      </c>
+      <c r="D233" s="4">
+        <f>48000 +(E233*2)-1</f>
+        <v>48925</v>
+      </c>
+      <c r="E233" s="4">
         <v>463</v>
       </c>
-      <c r="D233" t="s">
+      <c r="F233" t="s">
         <v>233</v>
       </c>
-      <c r="E233" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -5915,16 +7551,23 @@
         <v>48</v>
       </c>
       <c r="C234" s="4">
+        <v>48929</v>
+      </c>
+      <c r="D234" s="4">
+        <f>48000 +(E234*2)-1</f>
+        <v>48929</v>
+      </c>
+      <c r="E234" s="4">
         <v>465</v>
       </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>234</v>
       </c>
-      <c r="E234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -5932,16 +7575,23 @@
         <v>48</v>
       </c>
       <c r="C235" s="4">
+        <v>48933</v>
+      </c>
+      <c r="D235" s="4">
+        <f>48000 +(E235*2)-1</f>
+        <v>48933</v>
+      </c>
+      <c r="E235" s="4">
         <v>467</v>
       </c>
-      <c r="D235" t="s">
+      <c r="F235" t="s">
         <v>235</v>
       </c>
-      <c r="E235" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -5949,16 +7599,23 @@
         <v>48</v>
       </c>
       <c r="C236" s="4">
+        <v>48937</v>
+      </c>
+      <c r="D236" s="4">
+        <f>48000 +(E236*2)-1</f>
+        <v>48937</v>
+      </c>
+      <c r="E236" s="4">
         <v>469</v>
       </c>
-      <c r="D236" t="s">
+      <c r="F236" t="s">
         <v>236</v>
       </c>
-      <c r="E236" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -5966,16 +7623,23 @@
         <v>48</v>
       </c>
       <c r="C237" s="4">
+        <v>48941</v>
+      </c>
+      <c r="D237" s="4">
+        <f>48000 +(E237*2)-1</f>
+        <v>48941</v>
+      </c>
+      <c r="E237" s="4">
         <v>471</v>
       </c>
-      <c r="D237" t="s">
+      <c r="F237" t="s">
         <v>237</v>
       </c>
-      <c r="E237" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -5983,16 +7647,23 @@
         <v>48</v>
       </c>
       <c r="C238" s="4">
+        <v>48945</v>
+      </c>
+      <c r="D238" s="4">
+        <f>48000 +(E238*2)-1</f>
+        <v>48945</v>
+      </c>
+      <c r="E238" s="4">
         <v>473</v>
       </c>
-      <c r="D238" t="s">
+      <c r="F238" t="s">
         <v>238</v>
       </c>
-      <c r="E238" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -6000,16 +7671,23 @@
         <v>48</v>
       </c>
       <c r="C239" s="4">
+        <v>48949</v>
+      </c>
+      <c r="D239" s="4">
+        <f>48000 +(E239*2)-1</f>
+        <v>48949</v>
+      </c>
+      <c r="E239" s="4">
         <v>475</v>
       </c>
-      <c r="D239" t="s">
+      <c r="F239" t="s">
         <v>239</v>
       </c>
-      <c r="E239" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -6017,16 +7695,23 @@
         <v>48</v>
       </c>
       <c r="C240" s="4">
+        <v>48953</v>
+      </c>
+      <c r="D240" s="4">
+        <f>48000 +(E240*2)-1</f>
+        <v>48953</v>
+      </c>
+      <c r="E240" s="4">
         <v>477</v>
       </c>
-      <c r="D240" t="s">
+      <c r="F240" t="s">
         <v>240</v>
       </c>
-      <c r="E240" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -6034,16 +7719,23 @@
         <v>48</v>
       </c>
       <c r="C241" s="4">
+        <v>48957</v>
+      </c>
+      <c r="D241" s="4">
+        <f>48000 +(E241*2)-1</f>
+        <v>48957</v>
+      </c>
+      <c r="E241" s="4">
         <v>479</v>
       </c>
-      <c r="D241" t="s">
+      <c r="F241" t="s">
         <v>241</v>
       </c>
-      <c r="E241" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -6051,16 +7743,23 @@
         <v>48</v>
       </c>
       <c r="C242" s="4">
+        <v>48961</v>
+      </c>
+      <c r="D242" s="4">
+        <f>48000 +(E242*2)-1</f>
+        <v>48961</v>
+      </c>
+      <c r="E242" s="4">
         <v>481</v>
       </c>
-      <c r="D242" t="s">
+      <c r="F242" t="s">
         <v>242</v>
       </c>
-      <c r="E242" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -6068,16 +7767,23 @@
         <v>48</v>
       </c>
       <c r="C243" s="4">
+        <v>48965</v>
+      </c>
+      <c r="D243" s="4">
+        <f>48000 +(E243*2)-1</f>
+        <v>48965</v>
+      </c>
+      <c r="E243" s="4">
         <v>483</v>
       </c>
-      <c r="D243" t="s">
+      <c r="F243" t="s">
         <v>243</v>
       </c>
-      <c r="E243" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -6085,16 +7791,23 @@
         <v>48</v>
       </c>
       <c r="C244" s="4">
+        <v>48969</v>
+      </c>
+      <c r="D244" s="4">
+        <f>48000 +(E244*2)-1</f>
+        <v>48969</v>
+      </c>
+      <c r="E244" s="4">
         <v>485</v>
       </c>
-      <c r="D244" t="s">
+      <c r="F244" t="s">
         <v>244</v>
       </c>
-      <c r="E244" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -6102,16 +7815,23 @@
         <v>48</v>
       </c>
       <c r="C245" s="4">
+        <v>48973</v>
+      </c>
+      <c r="D245" s="4">
+        <f>48000 +(E245*2)-1</f>
+        <v>48973</v>
+      </c>
+      <c r="E245" s="4">
         <v>487</v>
       </c>
-      <c r="D245" t="s">
+      <c r="F245" t="s">
         <v>245</v>
       </c>
-      <c r="E245" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -6119,16 +7839,23 @@
         <v>48</v>
       </c>
       <c r="C246" s="4">
+        <v>48977</v>
+      </c>
+      <c r="D246" s="4">
+        <f>48000 +(E246*2)-1</f>
+        <v>48977</v>
+      </c>
+      <c r="E246" s="4">
         <v>489</v>
       </c>
-      <c r="D246" t="s">
+      <c r="F246" t="s">
         <v>246</v>
       </c>
-      <c r="E246" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -6136,16 +7863,23 @@
         <v>48</v>
       </c>
       <c r="C247" s="4">
+        <v>48981</v>
+      </c>
+      <c r="D247" s="4">
+        <f>48000 +(E247*2)-1</f>
+        <v>48981</v>
+      </c>
+      <c r="E247" s="4">
         <v>491</v>
       </c>
-      <c r="D247" t="s">
+      <c r="F247" t="s">
         <v>247</v>
       </c>
-      <c r="E247" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -6153,16 +7887,23 @@
         <v>48</v>
       </c>
       <c r="C248" s="4">
+        <v>48985</v>
+      </c>
+      <c r="D248" s="4">
+        <f>48000 +(E248*2)-1</f>
+        <v>48985</v>
+      </c>
+      <c r="E248" s="4">
         <v>493</v>
       </c>
-      <c r="D248" t="s">
+      <c r="F248" t="s">
         <v>248</v>
       </c>
-      <c r="E248" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -6170,16 +7911,23 @@
         <v>48</v>
       </c>
       <c r="C249" s="4">
+        <v>48989</v>
+      </c>
+      <c r="D249" s="4">
+        <f>48000 +(E249*2)-1</f>
+        <v>48989</v>
+      </c>
+      <c r="E249" s="4">
         <v>495</v>
       </c>
-      <c r="D249" t="s">
+      <c r="F249" t="s">
         <v>249</v>
       </c>
-      <c r="E249" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -6187,16 +7935,23 @@
         <v>48</v>
       </c>
       <c r="C250" s="4">
+        <v>48993</v>
+      </c>
+      <c r="D250" s="4">
+        <f>48000 +(E250*2)-1</f>
+        <v>48993</v>
+      </c>
+      <c r="E250" s="4">
         <v>497</v>
       </c>
-      <c r="D250" t="s">
+      <c r="F250" t="s">
         <v>250</v>
       </c>
-      <c r="E250" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -6204,16 +7959,23 @@
         <v>48</v>
       </c>
       <c r="C251" s="4">
+        <v>48997</v>
+      </c>
+      <c r="D251" s="4">
+        <f>48000 +(E251*2)-1</f>
+        <v>48997</v>
+      </c>
+      <c r="E251" s="4">
         <v>499</v>
       </c>
-      <c r="D251" t="s">
+      <c r="F251" t="s">
         <v>251</v>
       </c>
-      <c r="E251" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -6221,16 +7983,23 @@
         <v>48</v>
       </c>
       <c r="C252" s="4">
+        <v>49001</v>
+      </c>
+      <c r="D252" s="4">
+        <f>48000 +(E252*2)-1</f>
+        <v>49001</v>
+      </c>
+      <c r="E252" s="4">
         <v>501</v>
       </c>
-      <c r="D252" t="s">
+      <c r="F252" t="s">
         <v>252</v>
       </c>
-      <c r="E252" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -6238,16 +8007,23 @@
         <v>48</v>
       </c>
       <c r="C253" s="4">
+        <v>49005</v>
+      </c>
+      <c r="D253" s="4">
+        <f>48000 +(E253*2)-1</f>
+        <v>49005</v>
+      </c>
+      <c r="E253" s="4">
         <v>503</v>
       </c>
-      <c r="D253" t="s">
+      <c r="F253" t="s">
         <v>253</v>
       </c>
-      <c r="E253" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -6255,16 +8031,23 @@
         <v>48</v>
       </c>
       <c r="C254" s="4">
+        <v>49009</v>
+      </c>
+      <c r="D254" s="4">
+        <f>48000 +(E254*2)-1</f>
+        <v>49009</v>
+      </c>
+      <c r="E254" s="4">
         <v>505</v>
       </c>
-      <c r="D254" t="s">
+      <c r="F254" t="s">
         <v>254</v>
       </c>
-      <c r="E254" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -6272,26 +8055,34 @@
         <v>48</v>
       </c>
       <c r="C255" s="4">
+        <v>49013</v>
+      </c>
+      <c r="D255" s="4">
+        <f>48000 +(E255*2)-1</f>
+        <v>49013</v>
+      </c>
+      <c r="E255" s="4">
         <v>507</v>
       </c>
-      <c r="D255" t="s">
+      <c r="F255" t="s">
         <v>255</v>
       </c>
-      <c r="E255" t="s">
+      <c r="G255" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="A24:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6700,10 +8491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4889A3F2-3CD4-4681-96E4-2A229D7AA7BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/County_Basin_IDs.xlsx
+++ b/County_Basin_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\Documents\GitHub\TWDB_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299DBE92-4469-43E1-8992-09EEBCFF84C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59201F6-B5E3-412F-8678-4DC104BC707F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="County_FIPS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="343">
   <si>
     <t>TX</t>
   </si>
@@ -1950,16 +1950,16 @@
       <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -6305,19 +6305,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -6708,12 +6708,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
       <c r="B24" s="4">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>342</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6730,15 +6739,15 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -6755,7 +6764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6789,7 +6798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6823,7 +6832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6857,7 +6866,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6874,7 +6883,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6891,7 +6900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6908,7 +6917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -6925,7 +6934,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -6942,7 +6951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6959,7 +6968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6976,7 +6985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7010,7 +7019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -7027,7 +7036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7044,7 +7053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
